--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_7_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>661080.0907108691</v>
+        <v>659375.7385741569</v>
       </c>
     </row>
     <row r="7">
@@ -674,13 +674,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.82686628320258</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>140.6132203701225</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>87.7061602166668</v>
+        <v>205.5810588664028</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.42520990093634</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.55628960705695</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>87.89355723993967</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243786</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>344.8531163447327</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>86.20929371710773</v>
       </c>
       <c r="E11" t="n">
         <v>361.5105946459869</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.4562703154366</v>
       </c>
       <c r="G11" t="n">
-        <v>291.3161863730493</v>
+        <v>392.5197736437242</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257433</v>
+        <v>294.8530230257434</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302586</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>328.8211932911381</v>
+        <v>328.8211932911382</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521941</v>
+        <v>349.3113252521942</v>
       </c>
       <c r="Y11" t="n">
         <v>365.8181632297787</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202943</v>
+        <v>80.07625657908625</v>
       </c>
       <c r="F13" t="n">
-        <v>27.86272239726296</v>
+        <v>125.0012725966564</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041964</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948985</v>
+        <v>265.8414332948986</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103161</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>362.3140662372057</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>182.4040547345027</v>
       </c>
       <c r="D14" t="n">
         <v>334.2632661944081</v>
       </c>
       <c r="E14" t="n">
-        <v>162.8440669151413</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
         <v>386.4562703154366</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.5197736437242</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257434</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.94929161302586</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V14" t="n">
         <v>307.3324830438601</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911382</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>349.3113252521942</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
         <v>125.0012725966564</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959535</v>
+        <v>39.38276451485024</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041964</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975532</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1032229103162</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>117.6450151858369</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345612</v>
+        <v>37.55779725345609</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686442</v>
+        <v>73.35764310686437</v>
       </c>
       <c r="T17" t="n">
         <v>130.9397223597039</v>
@@ -1910,7 +1910,7 @@
         <v>287.9198308926244</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.426668870209</v>
+        <v>304.4266688702089</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609265</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278319</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236771</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072457</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708664</v>
+        <v>63.6097782370866</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>85.11966459179391</v>
       </c>
       <c r="H19" t="n">
-        <v>52.37968007065224</v>
+        <v>70.99113916484788</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.76076153638373</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462661</v>
+        <v>47.81864454462658</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7316352671971</v>
+        <v>123.731635267197</v>
       </c>
       <c r="T19" t="n">
-        <v>141.6050365425687</v>
+        <v>141.6050365425686</v>
       </c>
       <c r="U19" t="n">
         <v>204.4499389353288</v>
@@ -2068,7 +2068,7 @@
         <v>143.8983856031925</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7733835662502</v>
+        <v>55.90419120460233</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686443</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T20" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U20" t="n">
         <v>169.345328046381</v>
@@ -2141,10 +2141,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2178,7 +2178,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I21" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S21" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T21" t="n">
         <v>195.0682397085608</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072457</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F22" t="n">
-        <v>63.60977823708664</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179398</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484792</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638378</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T22" t="n">
-        <v>141.6050365425687</v>
+        <v>67.1042904850429</v>
       </c>
       <c r="U22" t="n">
-        <v>106.7766982575825</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V22" t="n">
         <v>170.3263735379834</v>
@@ -2302,7 +2302,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031925</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y22" t="n">
         <v>136.7733835662502</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.9225718776359</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C23" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D23" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E23" t="n">
-        <v>300.1191002864171</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F23" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1282792841544</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H23" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345751</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686434</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T23" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U23" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V23" t="n">
-        <v>245.9409886842902</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W23" t="n">
-        <v>267.4296989315683</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X23" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4266688702089</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609262</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278316</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236768</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E25" t="n">
-        <v>64.6226928607245</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.697299095725427</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179388</v>
+        <v>67.86025046723135</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484785</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S25" t="n">
-        <v>123.731635267197</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T25" t="n">
-        <v>141.6050365425686</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U25" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V25" t="n">
-        <v>170.3263735379833</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507463</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X25" t="n">
-        <v>143.8983856031925</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662501</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>300.922571877636</v>
       </c>
       <c r="C26" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E26" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F26" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G26" t="n">
         <v>331.1282792841545</v>
       </c>
       <c r="H26" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345617</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686447</v>
+        <v>73.35764310686439</v>
       </c>
       <c r="T26" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U26" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V26" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W26" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X26" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y26" t="n">
         <v>304.426668870209</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609267</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236773</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072454</v>
       </c>
       <c r="F28" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708662</v>
       </c>
       <c r="G28" t="n">
-        <v>10.61891853426789</v>
+        <v>85.11966459179392</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.93480525525869</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638374</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462667</v>
+        <v>47.81864454462659</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
@@ -2767,7 +2767,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U28" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V28" t="n">
         <v>170.3263735379834</v>
@@ -2776,7 +2776,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X28" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y28" t="n">
         <v>136.7733835662502</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686443</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T29" t="n">
         <v>130.9397223597039</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609267</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278323</v>
+        <v>85.4355513127832</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236775</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072457</v>
+        <v>64.62269286072454</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708664</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179395</v>
+        <v>85.11966459179392</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484792</v>
+        <v>70.99113916484789</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638378</v>
+        <v>41.76076153638375</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462663</v>
+        <v>47.8186445446266</v>
       </c>
       <c r="S31" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6050365425687</v>
+        <v>126.5271327896503</v>
       </c>
       <c r="U31" t="n">
-        <v>58.9580537129555</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V31" t="n">
         <v>170.3263735379834</v>
@@ -3032,13 +3032,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E32" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G32" t="n">
         <v>325.0256365363284</v>
@@ -3047,7 +3047,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>119.3690670393008</v>
+        <v>31.45515450563006</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T32" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U32" t="n">
-        <v>165.4459322079001</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
         <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837423</v>
+        <v>263.5303030930863</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.3240261223829</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826657</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289845</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H34" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855765</v>
+        <v>35.65811878855769</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U34" t="n">
         <v>198.3472961875027</v>
@@ -3250,7 +3250,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y34" t="n">
         <v>130.6707408184241</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C35" t="n">
         <v>277.3589792373368</v>
@@ -3272,19 +3272,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E35" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F35" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G35" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H35" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U35" t="n">
         <v>163.2426852985549</v>
@@ -3326,7 +3326,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X35" t="n">
         <v>281.8171881447983</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454164</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396784</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855763</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S37" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T37" t="n">
         <v>135.5023937947425</v>
@@ -3481,16 +3481,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V37" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W37" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X37" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3506,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D38" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E38" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F38" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G38" t="n">
         <v>325.0256365363284</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563006</v>
+        <v>31.45515450563005</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903831</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118779</v>
@@ -3566,7 +3566,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X38" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y38" t="n">
         <v>298.3240261223829</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855769</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680053</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T40" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U40" t="n">
         <v>198.3472961875027</v>
@@ -3724,7 +3724,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y40" t="n">
         <v>130.6707408184241</v>
@@ -3743,13 +3743,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D41" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E41" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F41" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G41" t="n">
         <v>325.0256365363284</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563003</v>
+        <v>31.45515450563006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118779</v>
@@ -3803,7 +3803,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X41" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y41" t="n">
         <v>298.3240261223829</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826657</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289845</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H43" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855765</v>
+        <v>35.65811878855769</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T43" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
         <v>198.3472961875027</v>
@@ -3961,7 +3961,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y43" t="n">
         <v>130.6707408184241</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563003</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826657</v>
+        <v>91.91806764826656</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495709</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454162</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289813</v>
+        <v>58.52005011289843</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926051</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396783</v>
+        <v>79.01702184396781</v>
       </c>
       <c r="H46" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702178</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855765</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4367,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.4227147053767</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9696854242497</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4416,7 +4416,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>915.7471895680073</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>915.7471895680073</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0235995812195</v>
+        <v>915.7471895680073</v>
       </c>
       <c r="V3" t="n">
-        <v>586.8714913494769</v>
+        <v>915.7471895680073</v>
       </c>
       <c r="W3" t="n">
-        <v>343.4227147053767</v>
+        <v>672.2984129239073</v>
       </c>
       <c r="X3" t="n">
-        <v>343.4227147053767</v>
+        <v>672.2984129239073</v>
       </c>
       <c r="Y3" t="n">
-        <v>343.4227147053767</v>
+        <v>464.5381141589534</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4525,13 +4525,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
         <v>259.4103516356203</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641.3909951282167</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>466.9379658470897</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>318.0035561858384</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>918.0407013620938</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>744.6233568127627</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>744.6233568127627</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>744.6233568127627</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4712485810199</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4712485810199</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>301.6197483754871</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.6083788665362</v>
+        <v>301.6197483754871</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="G8" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>283.2696759935595</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C9" t="n">
-        <v>108.8166467124325</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>108.8166467124325</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>108.8166467124325</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>108.8166467124325</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>283.2696759935595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>283.2696759935595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>283.2696759935595</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1379.057110433342</v>
+        <v>2058.67169923763</v>
       </c>
       <c r="C11" t="n">
-        <v>1030.720629277047</v>
+        <v>1710.335218081335</v>
       </c>
       <c r="D11" t="n">
-        <v>1030.720629277047</v>
+        <v>1623.25512341759</v>
       </c>
       <c r="E11" t="n">
-        <v>665.5584124629187</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F11" t="n">
-        <v>665.5584124629187</v>
+        <v>867.7330375979699</v>
       </c>
       <c r="G11" t="n">
-        <v>371.2996383487275</v>
+        <v>471.2484177558243</v>
       </c>
       <c r="H11" t="n">
-        <v>73.46830195908775</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J11" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5057,7 +5057,7 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P11" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q11" t="n">
         <v>3673.415097954388</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089303</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807208</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.96340442746</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868005</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.383933382007</v>
+        <v>3146.998522186296</v>
       </c>
       <c r="X11" t="n">
-        <v>2114.544210905044</v>
+        <v>2794.158799709332</v>
       </c>
       <c r="Y11" t="n">
-        <v>1745.030914713348</v>
+        <v>2424.645503517636</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K12" t="n">
-        <v>248.5119406718155</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L12" t="n">
-        <v>750.2690295566954</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.775107572711</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N12" t="n">
-        <v>2057.861087902729</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O12" t="n">
-        <v>2214.519473647356</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P12" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.402498082636</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>228.8995237950043</v>
+        <v>280.6173213285248</v>
       </c>
       <c r="C13" t="n">
-        <v>228.8995237950043</v>
+        <v>280.6173213285248</v>
       </c>
       <c r="D13" t="n">
-        <v>228.8995237950043</v>
+        <v>280.6173213285248</v>
       </c>
       <c r="E13" t="n">
-        <v>101.6124659967271</v>
+        <v>199.7322136728821</v>
       </c>
       <c r="F13" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="G13" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814351</v>
+        <v>75.45401965814358</v>
       </c>
       <c r="K13" t="n">
         <v>195.5491741164734</v>
@@ -5206,13 +5206,13 @@
         <v>399.1026573432035</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459851</v>
       </c>
       <c r="N13" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327546</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P13" t="n">
         <v>1184.847502163548</v>
@@ -5221,28 +5221,28 @@
         <v>1207.639325881398</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260997</v>
       </c>
       <c r="S13" t="n">
-        <v>1207.639325881398</v>
+        <v>910.33299403194</v>
       </c>
       <c r="T13" t="n">
-        <v>1207.639325881398</v>
+        <v>910.33299403194</v>
       </c>
       <c r="U13" t="n">
-        <v>939.1126255835209</v>
+        <v>641.8062937340626</v>
       </c>
       <c r="V13" t="n">
-        <v>705.0541731617501</v>
+        <v>641.8062937340626</v>
       </c>
       <c r="W13" t="n">
-        <v>436.2630389089056</v>
+        <v>641.8062937340626</v>
       </c>
       <c r="X13" t="n">
-        <v>228.8995237950043</v>
+        <v>641.8062937340626</v>
       </c>
       <c r="Y13" t="n">
-        <v>228.8995237950043</v>
+        <v>441.6397503746485</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1612.124607813089</v>
+        <v>1847.309969784425</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.788126656794</v>
+        <v>1663.063449850584</v>
       </c>
       <c r="D14" t="n">
-        <v>926.1484638341594</v>
+        <v>1325.42378702795</v>
       </c>
       <c r="E14" t="n">
-        <v>761.6595073542189</v>
+        <v>960.2615702138216</v>
       </c>
       <c r="F14" t="n">
-        <v>371.2996383487275</v>
+        <v>569.9017012083301</v>
       </c>
       <c r="G14" t="n">
-        <v>371.2996383487275</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="H14" t="n">
-        <v>73.46830195908775</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J14" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5294,34 +5294,34 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089302</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807208</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="U14" t="n">
-        <v>3343.030901807208</v>
+        <v>3246.073644292545</v>
       </c>
       <c r="V14" t="n">
-        <v>3032.594050247753</v>
+        <v>2935.636792733091</v>
       </c>
       <c r="W14" t="n">
-        <v>2700.451430761755</v>
+        <v>2935.636792733091</v>
       </c>
       <c r="X14" t="n">
-        <v>2347.611708284791</v>
+        <v>2582.797070256127</v>
       </c>
       <c r="Y14" t="n">
-        <v>1978.098412093095</v>
+        <v>2213.283774064431</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J15" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K15" t="n">
-        <v>400.9597691519542</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L15" t="n">
-        <v>902.7168580368341</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M15" t="n">
-        <v>1079.17492294035</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N15" t="n">
-        <v>1667.937391818767</v>
+        <v>1866.786886193078</v>
       </c>
       <c r="O15" t="n">
         <v>2214.519473647356</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>585.9563905342197</v>
+        <v>663.1010584798125</v>
       </c>
       <c r="C16" t="n">
-        <v>437.6462433904289</v>
+        <v>514.7909113360216</v>
       </c>
       <c r="D16" t="n">
-        <v>437.6462433904289</v>
+        <v>514.7909113360216</v>
       </c>
       <c r="E16" t="n">
-        <v>437.6462433904289</v>
+        <v>387.5038535377445</v>
       </c>
       <c r="F16" t="n">
-        <v>311.3823316766345</v>
+        <v>261.2399418239502</v>
       </c>
       <c r="G16" t="n">
-        <v>311.3823316766345</v>
+        <v>113.2488721761082</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6624998337883</v>
+        <v>113.2488721761082</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814348</v>
+        <v>75.45401965814347</v>
       </c>
       <c r="K16" t="n">
         <v>195.5491741164733</v>
@@ -5443,10 +5443,10 @@
         <v>399.1026573432034</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459851</v>
+        <v>623.0114736459852</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327546</v>
+        <v>847.5115364327547</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995801</v>
@@ -5458,28 +5458,28 @@
         <v>1207.639325881398</v>
       </c>
       <c r="R16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260997</v>
       </c>
       <c r="S16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260997</v>
       </c>
       <c r="T16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260997</v>
       </c>
       <c r="U16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260997</v>
       </c>
       <c r="V16" t="n">
-        <v>973.5808734596269</v>
+        <v>863.2676018392266</v>
       </c>
       <c r="W16" t="n">
-        <v>704.7897392067823</v>
+        <v>863.2676018392266</v>
       </c>
       <c r="X16" t="n">
-        <v>585.9563905342197</v>
+        <v>863.2676018392266</v>
       </c>
       <c r="Y16" t="n">
-        <v>585.9563905342197</v>
+        <v>663.1010584798125</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E17" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053344</v>
+        <v>681.6982062053352</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019729</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
         <v>260.2054441404284</v>
@@ -5531,7 +5531,7 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
         <v>3673.415097954388</v>
@@ -5543,7 +5543,7 @@
         <v>3599.316468553515</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U17" t="n">
         <v>3295.998235820096</v>
@@ -5589,7 +5589,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
         <v>190.9942848817977</v>
@@ -5598,16 +5598,16 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L18" t="n">
-        <v>1020.242840959544</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M18" t="n">
-        <v>1196.70090586306</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N18" t="n">
-        <v>1459.960876960276</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P18" t="n">
         <v>2428.220199306442</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>409.6823481344559</v>
+        <v>491.36840102501</v>
       </c>
       <c r="C19" t="n">
-        <v>323.3838114548769</v>
+        <v>405.069864345431</v>
       </c>
       <c r="D19" t="n">
-        <v>255.9048182908691</v>
+        <v>337.5908711814232</v>
       </c>
       <c r="E19" t="n">
-        <v>190.6293709568038</v>
+        <v>337.5908711814232</v>
       </c>
       <c r="F19" t="n">
-        <v>126.3770697072213</v>
+        <v>273.3385699318408</v>
       </c>
       <c r="G19" t="n">
-        <v>126.3770697072213</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741174</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484215</v>
       </c>
       <c r="L19" t="n">
         <v>581.4353955911256</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
       </c>
       <c r="O19" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P19" t="n">
         <v>1610.290558075366</v>
@@ -5701,22 +5701,22 @@
         <v>1520.576850288156</v>
       </c>
       <c r="T19" t="n">
-        <v>1377.541459841117</v>
+        <v>1377.541459841118</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9795280498922</v>
+        <v>998.979528049893</v>
       </c>
       <c r="W19" t="n">
-        <v>792.2000042612594</v>
+        <v>792.2000042612603</v>
       </c>
       <c r="X19" t="n">
-        <v>646.84809961157</v>
+        <v>646.8480996115709</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.6931667163677</v>
+        <v>590.3792196069218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096532</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053344</v>
+        <v>681.6982062053356</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968274018</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J20" t="n">
-        <v>260.205444140428</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K20" t="n">
-        <v>660.8208179075377</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L20" t="n">
-        <v>1210.096241442435</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M20" t="n">
         <v>1837.877529641654</v>
@@ -5765,37 +5765,37 @@
         <v>2461.184977863253</v>
       </c>
       <c r="O20" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P20" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q20" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553514</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T20" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724853</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X20" t="n">
         <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J21" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K21" t="n">
-        <v>139.1391845095013</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L21" t="n">
-        <v>640.8962733943812</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M21" t="n">
-        <v>1278.402351410397</v>
+        <v>1654.347543314339</v>
       </c>
       <c r="N21" t="n">
-        <v>1948.488331740415</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O21" t="n">
-        <v>2495.070413569004</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P21" t="n">
-        <v>2601.469513133043</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.402498082636</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.6438483590749</v>
+        <v>484.935626980441</v>
       </c>
       <c r="C22" t="n">
-        <v>470.3453116794959</v>
+        <v>398.6370903008619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.866318515488</v>
+        <v>331.1580971368541</v>
       </c>
       <c r="E22" t="n">
-        <v>337.5908711814228</v>
+        <v>265.882649802789</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318403</v>
+        <v>201.6303485532067</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482107</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="H22" t="n">
         <v>115.6508893695764</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911253</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5932,28 +5932,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S22" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T22" t="n">
-        <v>1425.843120997305</v>
+        <v>1452.794738687102</v>
       </c>
       <c r="U22" t="n">
-        <v>1317.98787023207</v>
+        <v>1246.279648853437</v>
       </c>
       <c r="V22" t="n">
-        <v>1145.941028274511</v>
+        <v>1074.232806895877</v>
       </c>
       <c r="W22" t="n">
-        <v>939.1615044858786</v>
+        <v>867.4532831072446</v>
       </c>
       <c r="X22" t="n">
-        <v>793.809599836189</v>
+        <v>722.1013784575551</v>
       </c>
       <c r="Y22" t="n">
-        <v>655.6546669409868</v>
+        <v>583.9464455623529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E23" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053357</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G23" t="n">
-        <v>347.225196827402</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019741</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J23" t="n">
-        <v>260.2054441404282</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075377</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L23" t="n">
         <v>1210.096241442436</v>
@@ -6005,7 +6005,7 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P23" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q23" t="n">
         <v>3673.415097954388</v>
@@ -6017,7 +6017,7 @@
         <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U23" t="n">
         <v>3295.998235820096</v>
@@ -6032,7 +6032,7 @@
         <v>2486.613873690315</v>
       </c>
       <c r="Y23" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J24" t="n">
         <v>190.9942848817977</v>
@@ -6075,10 +6075,10 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.347543314339</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N24" t="n">
-        <v>1849.884573044239</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O24" t="n">
         <v>2006.542958788865</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>457.984009290646</v>
+        <v>409.6823481344556</v>
       </c>
       <c r="C25" t="n">
-        <v>371.6854726110671</v>
+        <v>323.3838114548765</v>
       </c>
       <c r="D25" t="n">
-        <v>304.2064794470592</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="E25" t="n">
-        <v>238.9310321129941</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="F25" t="n">
-        <v>231.1559825213521</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="G25" t="n">
-        <v>145.176523337722</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H25" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484215</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098816</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N25" t="n">
         <v>1151.399433512625</v>
       </c>
       <c r="O25" t="n">
-        <v>1405.066081491646</v>
+        <v>1405.066081491645</v>
       </c>
       <c r="P25" t="n">
-        <v>1610.290558075367</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q25" t="n">
-        <v>1693.859961209191</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1693.859961209191</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S25" t="n">
-        <v>1568.878511444345</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1425.843120997306</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1219.328031163641</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>1047.281189206082</v>
+        <v>998.9795280498922</v>
       </c>
       <c r="W25" t="n">
-        <v>840.5016654174493</v>
+        <v>792.2000042612594</v>
       </c>
       <c r="X25" t="n">
-        <v>695.14976076776</v>
+        <v>646.84809961157</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.9948278725578</v>
+        <v>508.6931667163674</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D26" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075377</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M26" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N26" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O26" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P26" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q26" t="n">
         <v>3673.415097954388</v>
@@ -6251,25 +6251,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V26" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W26" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J27" t="n">
         <v>190.9942848817977</v>
@@ -6312,10 +6312,10 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.347543314339</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.884573044239</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O27" t="n">
         <v>2006.542958788865</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344552</v>
+        <v>409.6823481344567</v>
       </c>
       <c r="C28" t="n">
-        <v>323.3838114548761</v>
+        <v>409.6823481344567</v>
       </c>
       <c r="D28" t="n">
-        <v>255.9048182908683</v>
+        <v>342.2033549704489</v>
       </c>
       <c r="E28" t="n">
-        <v>190.629370956803</v>
+        <v>276.9279076363837</v>
       </c>
       <c r="F28" t="n">
-        <v>126.3770697072205</v>
+        <v>212.6756063868012</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6508893695765</v>
+        <v>126.696147203171</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484215</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M28" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O28" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P28" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075367</v>
       </c>
       <c r="Q28" t="n">
-        <v>1693.85996120919</v>
+        <v>1693.859961209191</v>
       </c>
       <c r="R28" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S28" t="n">
-        <v>1520.576850288155</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841118</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V28" t="n">
-        <v>998.9795280498918</v>
+        <v>998.979528049893</v>
       </c>
       <c r="W28" t="n">
-        <v>792.200004261259</v>
+        <v>792.2000042612603</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115695</v>
+        <v>646.8480996115709</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.693166716367</v>
+        <v>508.6931667163685</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147036</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454952</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E29" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053341</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019727</v>
       </c>
       <c r="I29" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908774</v>
       </c>
       <c r="J29" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K29" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075374</v>
       </c>
       <c r="L29" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442435</v>
       </c>
       <c r="M29" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N29" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O29" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P29" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634154</v>
       </c>
       <c r="Q29" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="R29" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T29" t="n">
         <v>3467.054122735632</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724852</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703066</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.11218796283</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I30" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908774</v>
       </c>
       <c r="J30" t="n">
         <v>190.9942848817977</v>
@@ -6546,19 +6546,19 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L30" t="n">
-        <v>1020.242840959544</v>
+        <v>653.1108991091194</v>
       </c>
       <c r="M30" t="n">
-        <v>1654.347543314339</v>
+        <v>1290.616977125135</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.884573044239</v>
+        <v>1960.702957455153</v>
       </c>
       <c r="O30" t="n">
-        <v>2006.542958788865</v>
+        <v>2507.285039283742</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.220199306442</v>
+        <v>2613.684138847781</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.402498082636</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>556.6438483590755</v>
+        <v>424.9125539454852</v>
       </c>
       <c r="C31" t="n">
-        <v>470.3453116794964</v>
+        <v>338.6140172659062</v>
       </c>
       <c r="D31" t="n">
-        <v>402.8663185154886</v>
+        <v>338.6140172659062</v>
       </c>
       <c r="E31" t="n">
-        <v>337.5908711814234</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318409</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482107</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H31" t="n">
-        <v>115.6508893695764</v>
+        <v>115.6508893695766</v>
       </c>
       <c r="I31" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908774</v>
       </c>
       <c r="J31" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M31" t="n">
         <v>866.1217913098812</v>
@@ -6643,28 +6643,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R31" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S31" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T31" t="n">
-        <v>1377.541459841117</v>
+        <v>1392.771665652146</v>
       </c>
       <c r="U31" t="n">
-        <v>1317.987870232071</v>
+        <v>1186.256575818481</v>
       </c>
       <c r="V31" t="n">
-        <v>1145.941028274512</v>
+        <v>1014.209733860922</v>
       </c>
       <c r="W31" t="n">
-        <v>939.161504485879</v>
+        <v>807.4302100722889</v>
       </c>
       <c r="X31" t="n">
-        <v>793.8095998361896</v>
+        <v>662.0783054225994</v>
       </c>
       <c r="Y31" t="n">
-        <v>655.6546669409873</v>
+        <v>523.9233725273971</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.801926772176</v>
+        <v>1831.999994919984</v>
       </c>
       <c r="C32" t="n">
-        <v>1640.641341683957</v>
+        <v>1551.839409831765</v>
       </c>
       <c r="D32" t="n">
-        <v>1371.177574929399</v>
+        <v>1282.375643077207</v>
       </c>
       <c r="E32" t="n">
-        <v>1074.191254183348</v>
+        <v>985.3893223311552</v>
       </c>
       <c r="F32" t="n">
-        <v>752.0072812459329</v>
+        <v>663.2053493937403</v>
       </c>
       <c r="G32" t="n">
-        <v>423.6985574718638</v>
+        <v>334.8966256196712</v>
       </c>
       <c r="H32" t="n">
-        <v>194.0431171503006</v>
+        <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
         <v>73.46830195908775</v>
@@ -6704,46 +6704,46 @@
         <v>660.8208179075377</v>
       </c>
       <c r="L32" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442435</v>
       </c>
       <c r="M32" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N32" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O32" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P32" t="n">
         <v>3430.660101634155</v>
       </c>
       <c r="Q32" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="R32" t="n">
         <v>3671.97824767724</v>
       </c>
       <c r="S32" t="n">
-        <v>3604.043903880232</v>
+        <v>3604.043903880231</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.945843666214</v>
+        <v>3477.945843666213</v>
       </c>
       <c r="U32" t="n">
-        <v>3310.828740425911</v>
+        <v>3313.054242354542</v>
       </c>
       <c r="V32" t="n">
-        <v>3068.567784934533</v>
+        <v>3070.793286863164</v>
       </c>
       <c r="W32" t="n">
-        <v>2804.601061516611</v>
+        <v>2804.601061516612</v>
       </c>
       <c r="X32" t="n">
         <v>2519.937235107725</v>
       </c>
       <c r="Y32" t="n">
-        <v>2218.599834984105</v>
+        <v>2129.797903131913</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>1264.423847230377</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N33" t="n">
         <v>1459.960876960276</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320222</v>
+        <v>513.4938491320215</v>
       </c>
       <c r="C34" t="n">
-        <v>433.359598056308</v>
+        <v>433.3595980563073</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961648</v>
+        <v>372.0448904961642</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659644</v>
+        <v>312.9337287659637</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202467</v>
+        <v>254.845713120246</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404811</v>
+        <v>175.0305395404805</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657116</v>
+        <v>109.486603765711</v>
       </c>
       <c r="I34" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944654</v>
+        <v>142.2732153944651</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891171</v>
+        <v>329.1875655891167</v>
       </c>
       <c r="L34" t="n">
-        <v>599.560244552169</v>
+        <v>599.5602445521687</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912728</v>
+        <v>890.2882565912723</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
@@ -6898,10 +6898,10 @@
         <v>877.5186484472309</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014063</v>
+        <v>738.3310294014062</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100693</v>
+        <v>606.3403821100686</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871941</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E35" t="n">
-        <v>983.5022961258892</v>
+        <v>983.5022961258903</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884743</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G35" t="n">
-        <v>333.009599414406</v>
+        <v>333.0095994144063</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I35" t="n">
         <v>71.58127575382302</v>
@@ -6977,10 +6977,10 @@
         <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.248277050266</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926647</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>189.107258676533</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693993</v>
+        <v>438.5517950777541</v>
       </c>
       <c r="L36" t="n">
-        <v>651.2238729038546</v>
+        <v>940.3088839626339</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.729950919871</v>
+        <v>1577.81496197865</v>
       </c>
       <c r="N36" t="n">
-        <v>1958.815931249889</v>
+        <v>1773.35199170855</v>
       </c>
       <c r="O36" t="n">
         <v>2319.934073537138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267574</v>
+        <v>511.6068229267572</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510431</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909001</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606996</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149819</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G37" t="n">
         <v>173.1435133352164</v>
@@ -7135,10 +7135,10 @@
         <v>875.6316222419662</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961415</v>
+        <v>736.4440031961416</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048045</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C38" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258906</v>
+        <v>983.502296125891</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884756</v>
+        <v>661.3183231884761</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144065</v>
+        <v>333.0095994144071</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351636</v>
@@ -7181,7 +7181,7 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.526219378419</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N38" t="n">
         <v>2366.833667600018</v>
@@ -7190,7 +7190,7 @@
         <v>2910.217578206718</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q38" t="n">
         <v>3579.063787691152</v>
@@ -7208,7 +7208,7 @@
         <v>3220.139782368454</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W38" t="n">
         <v>2713.912103459154</v>
@@ -7248,25 +7248,25 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J39" t="n">
-        <v>189.107258676533</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="K39" t="n">
-        <v>516.5987258693993</v>
+        <v>399.0727429466894</v>
       </c>
       <c r="L39" t="n">
-        <v>651.2238729038546</v>
+        <v>900.8298318315692</v>
       </c>
       <c r="M39" t="n">
-        <v>1288.729950919871</v>
+        <v>1103.266011378532</v>
       </c>
       <c r="N39" t="n">
-        <v>1958.815931249889</v>
+        <v>1773.35199170855</v>
       </c>
       <c r="O39" t="n">
-        <v>2115.474316994515</v>
+        <v>2319.934073537138</v>
       </c>
       <c r="P39" t="n">
         <v>2426.333173101178</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267569</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510426</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642908995</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E40" t="n">
-        <v>311.046702560699</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F40" t="n">
-        <v>252.9586869149813</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352158</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H40" t="n">
         <v>107.599577560447</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
         <v>140.3861891892006</v>
@@ -7354,7 +7354,7 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S40" t="n">
         <v>1579.351325853404</v>
@@ -7366,16 +7366,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961415</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.453355904804</v>
+        <v>604.4533559048044</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G41" t="n">
         <v>333.0095994144065</v>
@@ -7406,13 +7406,13 @@
         <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3184179351636</v>
+        <v>165.8541338771928</v>
       </c>
       <c r="K41" t="n">
-        <v>658.9337917022731</v>
+        <v>566.4695076443023</v>
       </c>
       <c r="L41" t="n">
         <v>1115.7449311792</v>
@@ -7427,7 +7427,7 @@
         <v>2910.217578206718</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q41" t="n">
         <v>3579.063787691152</v>
@@ -7448,7 +7448,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
         <v>2429.248277050267</v>
@@ -7485,7 +7485,7 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J42" t="n">
         <v>189.107258676533</v>
@@ -7494,19 +7494,19 @@
         <v>516.5987258693993</v>
       </c>
       <c r="L42" t="n">
-        <v>651.2238729038546</v>
+        <v>673.7364482210064</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.729950919871</v>
+        <v>1311.242526237022</v>
       </c>
       <c r="N42" t="n">
-        <v>1958.815931249889</v>
+        <v>1981.32850656704</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.474316994515</v>
+        <v>2527.910588395629</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267573</v>
+        <v>511.6068229267569</v>
       </c>
       <c r="C43" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510426</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909</v>
+        <v>370.1578642908995</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606995</v>
+        <v>311.046702560699</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149819</v>
+        <v>252.9586869149813</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352164</v>
+        <v>173.1435133352158</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469043</v>
       </c>
       <c r="M43" t="n">
         <v>888.4012303860081</v>
@@ -7591,28 +7591,28 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R43" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S43" t="n">
-        <v>1579.351325853404</v>
+        <v>1579.351325853403</v>
       </c>
       <c r="T43" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U43" t="n">
-        <v>1242.129416780429</v>
+        <v>1242.129416780428</v>
       </c>
       <c r="V43" t="n">
         <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419665</v>
+        <v>875.6316222419659</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961412</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048043</v>
+        <v>604.453355904804</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7628,22 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.502296125891</v>
+        <v>983.5022961258903</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884761</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J44" t="n">
         <v>258.3184179351636</v>
@@ -7655,34 +7655,34 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N44" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600017</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206718</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S44" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T44" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W44" t="n">
         <v>2713.912103459154</v>
@@ -7691,7 +7691,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J45" t="n">
         <v>189.107258676533</v>
       </c>
       <c r="K45" t="n">
-        <v>516.5987258693993</v>
+        <v>438.5517950777541</v>
       </c>
       <c r="L45" t="n">
-        <v>855.6836294464779</v>
+        <v>940.3088839626339</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.189707462494</v>
+        <v>1577.81496197865</v>
       </c>
       <c r="N45" t="n">
-        <v>2163.275687792512</v>
+        <v>1773.35199170855</v>
       </c>
       <c r="O45" t="n">
         <v>2319.934073537138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.606822926757</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510428</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606996</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F46" t="n">
         <v>252.9586869149819</v>
@@ -7801,19 +7801,19 @@
         <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892006</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838521</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469043</v>
+        <v>597.673218346904</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860079</v>
+        <v>888.4012303860077</v>
       </c>
       <c r="N46" t="n">
         <v>1179.720488909099</v>
@@ -7828,13 +7828,13 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S46" t="n">
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U46" t="n">
         <v>1242.129416780429</v>
@@ -7843,13 +7843,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419666</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961419</v>
+        <v>736.444003196142</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048041</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8064,10 +8064,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.377921277065411</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>110.477531477085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>206.5250066087102</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.377921277065411</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>397.1974132813306</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>193.004244151163</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,19 +9246,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>206.5250066087102</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>68.40701148213802</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627465</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>462.2693307588676</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.07798084029267</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>462.2693307588676</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>68.40701148213802</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>462.2693307588676</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>68.40701148213802</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>462.2693307588677</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>22.7399750678302</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.661214550451</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>68.4070114821383</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>185.6299533846541</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>206.5250066087103</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1152667676095</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>343.9486576867614</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.37792127706544</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>26.24051984186522</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>206.5250066087106</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844685079</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>324.2629478252274</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>22.7399750678301</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>206.5250066087106</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>356.1152667676085</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>287.4019145375225</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>185.6299533846541</v>
       </c>
       <c r="L45" t="n">
-        <v>206.5250066087104</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>248.0539724773004</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4562703154365</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>101.2035872706749</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302584</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.3324830438601</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>146.827045672353</v>
       </c>
       <c r="D13" t="n">
         <v>128.1956975919375</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.93793064120806</v>
       </c>
       <c r="F13" t="n">
-        <v>97.13855019939338</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513636</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244176</v>
+        <v>132.3826335244177</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267668</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>202.9965309021384</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.1032229103162</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>162.44906161023</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>198.6665277308456</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437242</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8530230257434</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302589</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059508</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>328.8211932911382</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556625</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>128.1956975919375</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.3826335244177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>63.76949138110326</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041964</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267669</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T16" t="n">
         <v>202.9965309021384</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>266.1032229103162</v>
       </c>
       <c r="X16" t="n">
-        <v>87.64486477692536</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.16487792582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>64.62269286072453</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179393</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.61145909419568</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638377</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>80.86919236164782</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462663</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>74.50074605752582</v>
       </c>
       <c r="U22" t="n">
-        <v>97.67324067774636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F25" t="n">
-        <v>55.91247914136115</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17.25941412456261</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.7607615363837</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462655</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.4355513127832</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>74.5007460575261</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484798</v>
+        <v>60.05633390958921</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>66.80420323236773</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>63.60977823708662</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>15.07790375291839</v>
       </c>
       <c r="U31" t="n">
-        <v>145.4918852223733</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>925060.8492413786</v>
+        <v>925060.8492413787</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1057885.615224996</v>
+        <v>1057885.615224995</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1057885.615224995</v>
+        <v>1057885.615224996</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1057885.615224995</v>
+        <v>1057885.615224996</v>
       </c>
     </row>
     <row r="12">
@@ -26320,19 +26320,19 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
+        <v>372288.8317176827</v>
+      </c>
+      <c r="F2" t="n">
         <v>372288.8317176828</v>
       </c>
-      <c r="F2" t="n">
-        <v>372288.8317176827</v>
-      </c>
       <c r="G2" t="n">
+        <v>429213.731424947</v>
+      </c>
+      <c r="H2" t="n">
         <v>429213.7314249473</v>
       </c>
-      <c r="H2" t="n">
-        <v>429213.7314249474</v>
-      </c>
       <c r="I2" t="n">
-        <v>429213.731424947</v>
+        <v>429213.7314249469</v>
       </c>
       <c r="J2" t="n">
         <v>429213.7314249473</v>
@@ -26347,13 +26347,13 @@
         <v>431046.9291787483</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787482</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787483</v>
       </c>
-      <c r="O2" t="n">
-        <v>431046.9291787481</v>
-      </c>
       <c r="P2" t="n">
-        <v>431046.9291787482</v>
+        <v>431046.9291787483</v>
       </c>
     </row>
     <row r="3">
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.1954876558</v>
+        <v>49113.19548765582</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012609</v>
+        <v>79395.76294012617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.3096859167</v>
+        <v>53995.30968591668</v>
       </c>
       <c r="M3" t="n">
         <v>162917.5281914783</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101985</v>
+        <v>16335.82034101993</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>77722.1882882106</v>
+        <v>77722.18828821056</v>
       </c>
       <c r="F4" t="n">
-        <v>77722.18828821054</v>
+        <v>77722.18828821056</v>
       </c>
       <c r="G4" t="n">
         <v>139761.1003882448</v>
@@ -26479,13 +26479,13 @@
         <v>70367.55973007937</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.55973007936</v>
+        <v>70367.55973007937</v>
       </c>
       <c r="G5" t="n">
-        <v>75528.68126939403</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="H5" t="n">
-        <v>75528.68126939403</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="I5" t="n">
         <v>75528.68126939404</v>
@@ -26497,19 +26497,19 @@
         <v>75528.68126939403</v>
       </c>
       <c r="L5" t="n">
-        <v>76041.72434256104</v>
+        <v>76041.72434256102</v>
       </c>
       <c r="M5" t="n">
         <v>74607.58442655983</v>
       </c>
       <c r="N5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655983</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35701.88125019316</v>
+        <v>-35701.8812501931</v>
       </c>
       <c r="C6" t="n">
+        <v>45067.55028135458</v>
+      </c>
+      <c r="D6" t="n">
         <v>45067.55028135464</v>
       </c>
-      <c r="D6" t="n">
-        <v>45067.55028135458</v>
-      </c>
       <c r="E6" t="n">
-        <v>-466650.3363152822</v>
+        <v>-466930.1367793826</v>
       </c>
       <c r="F6" t="n">
-        <v>224199.0836993928</v>
+        <v>223919.2832352925</v>
       </c>
       <c r="G6" t="n">
-        <v>164810.7542796526</v>
+        <v>164802.024766539</v>
       </c>
       <c r="H6" t="n">
-        <v>213923.9497673085</v>
+        <v>213915.2202541952</v>
       </c>
       <c r="I6" t="n">
-        <v>213923.9497673081</v>
+        <v>213915.2202541947</v>
       </c>
       <c r="J6" t="n">
-        <v>134528.1868271824</v>
+        <v>134519.4573140689</v>
       </c>
       <c r="K6" t="n">
-        <v>213923.9497673084</v>
+        <v>213915.2202541951</v>
       </c>
       <c r="L6" t="n">
-        <v>159240.7211695718</v>
+        <v>159240.7211695717</v>
       </c>
       <c r="M6" t="n">
-        <v>48905.90624857045</v>
+        <v>48905.90624857039</v>
       </c>
       <c r="N6" t="n">
         <v>211823.4344400486</v>
       </c>
       <c r="O6" t="n">
-        <v>195487.6140990286</v>
+        <v>195487.6140990287</v>
       </c>
       <c r="P6" t="n">
-        <v>211823.4344400486</v>
+        <v>211823.4344400487</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="G2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="H2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I2" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="K2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M2" t="n">
+        <v>87.91391253367075</v>
+      </c>
+      <c r="N2" t="n">
         <v>87.91391253367071</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>87.9139125336707</v>
       </c>
-      <c r="O2" t="n">
-        <v>87.91391253367073</v>
-      </c>
       <c r="P2" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>587.8431257275769</v>
       </c>
       <c r="H3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="I3" t="n">
         <v>587.8431257275769</v>
@@ -26796,40 +26796,40 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>918.3537744885971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>918.3537744885971</v>
+      </c>
+      <c r="G4" t="n">
+        <v>918.3537744885971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>918.3537744885971</v>
+      </c>
+      <c r="I4" t="n">
+        <v>918.3537744885971</v>
+      </c>
+      <c r="J4" t="n">
         <v>918.353774488597</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>918.3537744885967</v>
+      </c>
+      <c r="L4" t="n">
         <v>918.3537744885969</v>
-      </c>
-      <c r="G4" t="n">
-        <v>918.353774488597</v>
-      </c>
-      <c r="H4" t="n">
-        <v>918.3537744885969</v>
-      </c>
-      <c r="I4" t="n">
-        <v>918.353774488597</v>
-      </c>
-      <c r="J4" t="n">
-        <v>918.3537744885971</v>
-      </c>
-      <c r="K4" t="n">
-        <v>918.353774488597</v>
-      </c>
-      <c r="L4" t="n">
-        <v>918.353774488597</v>
       </c>
       <c r="M4" t="n">
         <v>894.7659469227877</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.7659469227877</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>20.41977542627486</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61.39149435956978</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.41977542627492</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67.49413710739584</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>20.41977542627491</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61.39149435956975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.41977542627478</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>67.49413710739587</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.41977542627481</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.3394856109379</v>
+        <v>677.339485610938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451287</v>
+        <v>653.7516580451289</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956975</v>
+        <v>61.39149435956978</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627478</v>
+        <v>20.41977542627492</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.3394856109379</v>
+        <v>677.339485610938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,13 +27394,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>179.3857036041843</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27458,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27506,16 +27506,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>123.8563048206352</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>85.3281617108523</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27552,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.6861434288851</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>319.1698855250446</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.107973748931</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>54.60154454558618</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,13 +27752,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,10 +27865,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>308.7646895842778</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>49.44995992327097</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>60.23598749168875</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.05078607424915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994494</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627486</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.41977542627486</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="C17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="D17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="E17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="F17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="G17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="H17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="I17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="T17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="U17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="V17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="W17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="X17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="C19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="D19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="E19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="F19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="G19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="H19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="K19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="L19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="M19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="N19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="O19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="P19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="R19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="S19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="T19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="U19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="V19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="W19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="X19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584464</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584322</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584467</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="29">
@@ -29509,34 +29509,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="K31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="L31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="M31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="N31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="O31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="P31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="R31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="S31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U32" t="n">
-        <v>85.71066562432557</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367073</v>
+        <v>85.71066562432674</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
   </sheetData>
@@ -32464,34 +32464,34 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H20" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I20" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J20" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K20" t="n">
-        <v>300.6064321779668</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L20" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M20" t="n">
         <v>414.9552130669844</v>
       </c>
       <c r="N20" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O20" t="n">
         <v>398.1706671354061</v>
       </c>
       <c r="P20" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q20" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R20" t="n">
         <v>148.4466361667735</v>
@@ -32555,7 +32555,7 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L21" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M21" t="n">
         <v>320.3745035215293</v>
@@ -32564,7 +32564,7 @@
         <v>328.8538633256564</v>
       </c>
       <c r="O21" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P21" t="n">
         <v>241.4482453578042</v>
@@ -32573,16 +32573,16 @@
         <v>161.4017578412773</v>
       </c>
       <c r="R21" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S21" t="n">
-        <v>23.48599657977628</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T21" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,16 +32622,16 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H22" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I22" t="n">
         <v>31.87844360502991</v>
       </c>
       <c r="J22" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K22" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L22" t="n">
         <v>157.5997783303081</v>
@@ -32640,28 +32640,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N22" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O22" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P22" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R22" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S22" t="n">
         <v>18.47369298393056</v>
       </c>
       <c r="T22" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K12" t="n">
-        <v>176.8117562754826</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L12" t="n">
-        <v>506.8253423079595</v>
+        <v>342.5100036132105</v>
       </c>
       <c r="M12" t="n">
         <v>643.9455333495109</v>
@@ -35504,10 +35504,10 @@
         <v>158.2407936814411</v>
       </c>
       <c r="P12" t="n">
-        <v>425.9366065834111</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.41998375525583</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591724</v>
+        <v>2.005775453591681</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265958</v>
@@ -35574,19 +35574,19 @@
         <v>205.6095790168991</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179614</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7677401886561</v>
+        <v>226.767740188656</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944463</v>
+        <v>23.02204415944459</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K15" t="n">
         <v>330.7994618109762</v>
@@ -35735,10 +35735,10 @@
         <v>178.240469599511</v>
       </c>
       <c r="N15" t="n">
-        <v>594.7095645236537</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O15" t="n">
-        <v>552.1031129581706</v>
+        <v>351.2450378326041</v>
       </c>
       <c r="P15" t="n">
         <v>425.9366065834111</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591667</v>
+        <v>2.005775453591678</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265958</v>
@@ -35823,7 +35823,7 @@
         <v>145.9059567350975</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944458</v>
+        <v>23.02204415944459</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>330.7994618109762</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8253423079595</v>
+        <v>342.5100036132105</v>
       </c>
       <c r="M18" t="n">
-        <v>178.240469599511</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N18" t="n">
-        <v>265.9191627244612</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O18" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P18" t="n">
-        <v>425.9366065834111</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q18" t="n">
         <v>231.4972714911049</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316142</v>
+        <v>63.39726981316146</v>
       </c>
       <c r="K19" t="n">
-        <v>182.6997311861655</v>
+        <v>182.6997311861656</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M19" t="n">
         <v>287.5620158775312</v>
@@ -36054,13 +36054,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O19" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P19" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901432</v>
+        <v>84.41353851901437</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>188.623375940748</v>
       </c>
       <c r="K20" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L20" t="n">
         <v>554.8236601362605</v>
@@ -36133,13 +36133,13 @@
         <v>629.6034830521203</v>
       </c>
       <c r="O20" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764659</v>
       </c>
       <c r="P20" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K21" t="n">
-        <v>66.33422479839757</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L21" t="n">
-        <v>506.8253423079594</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>640.5098003583786</v>
       </c>
       <c r="N21" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O21" t="n">
-        <v>552.1031129581705</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P21" t="n">
-        <v>107.4738379434739</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.49796459554847</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
@@ -36297,7 +36297,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901431</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>404.6619937041511</v>
       </c>
       <c r="L23" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362609</v>
       </c>
       <c r="M23" t="n">
         <v>634.1225133325441</v>
@@ -36443,13 +36443,13 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>640.5098003583786</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N24" t="n">
-        <v>197.5121512423231</v>
+        <v>265.9191627244612</v>
       </c>
       <c r="O24" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P24" t="n">
         <v>425.9366065834111</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316149</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K25" t="n">
-        <v>182.6997311861656</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L25" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M25" t="n">
-        <v>287.5620158775313</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1592345482259</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O25" t="n">
-        <v>256.2289373525462</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901439</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P26" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123254</v>
       </c>
       <c r="Q26" t="n">
         <v>245.2070669901341</v>
@@ -36680,13 +36680,13 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M27" t="n">
-        <v>640.5098003583786</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N27" t="n">
-        <v>197.5121512423231</v>
+        <v>265.9191627244612</v>
       </c>
       <c r="O27" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P27" t="n">
         <v>425.9366065834111</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316136</v>
+        <v>63.39726981316144</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M28" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N28" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O28" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P28" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901427</v>
+        <v>84.41353851901435</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>188.623375940748</v>
       </c>
       <c r="K29" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041506</v>
       </c>
       <c r="L29" t="n">
         <v>554.8236601362605</v>
@@ -36914,22 +36914,22 @@
         <v>330.7994618109761</v>
       </c>
       <c r="L30" t="n">
-        <v>506.8253423079594</v>
+        <v>135.9849970045003</v>
       </c>
       <c r="M30" t="n">
-        <v>640.5098003583787</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P30" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q30" t="n">
-        <v>231.4972714911049</v>
+        <v>44.159958823086</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K31" t="n">
         <v>182.6997311861655</v>
@@ -37005,10 +37005,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P31" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901431</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>404.661993704151</v>
       </c>
       <c r="L32" t="n">
-        <v>554.8236601362611</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M32" t="n">
         <v>634.1225133325441</v>
@@ -37154,10 +37154,10 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M33" t="n">
-        <v>246.6474810816493</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N33" t="n">
-        <v>197.5121512423231</v>
+        <v>265.9191627244614</v>
       </c>
       <c r="O33" t="n">
         <v>552.1031129581705</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098753</v>
+        <v>69.4999125609875</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
@@ -37233,19 +37233,19 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M34" t="n">
-        <v>293.6646586253573</v>
+        <v>293.6646586253572</v>
       </c>
       <c r="N34" t="n">
-        <v>294.2618772960519</v>
+        <v>294.2618772960518</v>
       </c>
       <c r="O34" t="n">
         <v>262.3315801003721</v>
       </c>
       <c r="P34" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684041</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>118.7131140633434</v>
       </c>
       <c r="K36" t="n">
-        <v>330.7994618109761</v>
+        <v>251.9641781830516</v>
       </c>
       <c r="L36" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M36" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O36" t="n">
-        <v>364.7658002901513</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P36" t="n">
         <v>107.4738379434739</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098751</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
@@ -37476,13 +37476,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O37" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P37" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684042</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M38" t="n">
-        <v>540.7242466073211</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N38" t="n">
-        <v>629.6034830521203</v>
+        <v>536.2052163268975</v>
       </c>
       <c r="O38" t="n">
         <v>548.8726369764647</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>330.7994618109761</v>
       </c>
       <c r="L39" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M39" t="n">
-        <v>643.9455333495109</v>
+        <v>204.4809894413762</v>
       </c>
       <c r="N39" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O39" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P39" t="n">
-        <v>313.9988445521845</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q39" t="n">
         <v>231.4972714911049</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.4999125609875</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
@@ -37707,10 +37707,10 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M40" t="n">
-        <v>293.6646586253572</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N40" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O40" t="n">
         <v>262.3315801003721</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424933</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684041</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.623375940748</v>
+        <v>95.22510921552501</v>
       </c>
       <c r="K41" t="n">
         <v>404.661993704151</v>
       </c>
       <c r="L41" t="n">
-        <v>461.4253934110375</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M41" t="n">
         <v>634.1225133325441</v>
@@ -37862,7 +37862,7 @@
         <v>330.7994618109761</v>
       </c>
       <c r="L42" t="n">
-        <v>135.9849970045003</v>
+        <v>158.7249720723304</v>
       </c>
       <c r="M42" t="n">
         <v>643.9455333495109</v>
@@ -37871,13 +37871,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O42" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P42" t="n">
-        <v>313.9988445521845</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098753</v>
+        <v>69.4999125609875</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339916</v>
@@ -37944,19 +37944,19 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M43" t="n">
-        <v>293.6646586253573</v>
+        <v>293.6646586253572</v>
       </c>
       <c r="N43" t="n">
-        <v>294.2618772960519</v>
+        <v>294.2618772960518</v>
       </c>
       <c r="O43" t="n">
         <v>262.3315801003721</v>
       </c>
       <c r="P43" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684041</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325441</v>
+        <v>540.7242466073202</v>
       </c>
       <c r="N44" t="n">
         <v>629.6034830521203</v>
       </c>
       <c r="O44" t="n">
-        <v>455.4743702512419</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P44" t="n">
         <v>430.3951648123244</v>
@@ -38096,19 +38096,19 @@
         <v>118.7131140633434</v>
       </c>
       <c r="K45" t="n">
-        <v>330.7994618109761</v>
+        <v>251.9641781830516</v>
       </c>
       <c r="L45" t="n">
-        <v>342.5100036132106</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M45" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O45" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P45" t="n">
         <v>107.4738379434739</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K46" t="n">
         <v>188.8023739339916</v>
@@ -38187,13 +38187,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P46" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
